--- a/biology/Médecine/Louis_Ozoux/Louis_Ozoux.xlsx
+++ b/biology/Médecine/Louis_Ozoux/Louis_Ozoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elie François Léonce Louis Ozoux, né le 23 août 1869 à Saint-Denis et mort le 24 avril 1935 dans cette ville, est un médecin français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires à Saint-Denis, il poursuit ses études de médecine à Bordeaux et parallèlement à l'École des beaux-arts avec le même succès. Docteur en médecine en 1893, chef de clinique à la faculté (1893-1897), puis professeur d'anatomie (1900-1902) tout en exerçant comme orthopédiste à l'Hôpital des enfants.
 Il contribue au Journal des artistes de Paris. En 1912, il suit les cours de l'Institut Pasteur de Paris (1902 à 1903 puis de 1909 à 1910) et est diplômé de médecine sanitaire et de médecine tropicale. Pendant son séjour en France, il est l'auteur d'une soixantaine d'articles médicaux et poursuit également une carrière de peintre en exposant à Bordeaux et à Marseille.
 De retour en Colonie, en 1914, il prend le poste de Directeur de l'Institut d'Hygiène de la Réunion. Au début de la Grande guerre, il est mobilisé à la Réunion puis à Madagascar de 1914 à 1915. Il repart le 10 juin 1915 en France pendant quatre ans pour la Grande guerre.
 Il est rappelé par le gouverneur Victor Jean Brochard pour faire face à l'épidémie de grippe espagnole de 1919. Il dirige alors l'Institut de bactériologie et devient chef du Service de Santé de la Colonie.
 Il continue à peindre et s'adonne à la poésie, passion qu'il partage avec son cousin Élie Welcome Ozoux, à la littérature et à la critique d'art. Il préside l'Académie de La Réunion et la Société des Sciences et Arts. Il meurt à Saint-Denis le 24 avril 1935.
-Deux volumes de ses œuvres ont été publiés après sa mort dont Mafate (Poèmes réunionnais, 1939[1]).
+Deux volumes de ses œuvres ont été publiés après sa mort dont Mafate (Poèmes réunionnais, 1939).
 Cirque de Purgatoire, où le humains, les bêtes,
 À l'exil, à la peur, à la faim condamnés,
 Languissent, expiant le bonheur d'être nés
@@ -554,9 +568,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Légion d'honneur[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légion d'honneur :
 1919 :   Chevalier de la Légion d'honneur
 1931 :   Officier de la Légion d'honneur
 1917 :  Croix de guerre 1914-1918</t>
